--- a/data/income_statement/3digits/total/321_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/321_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>321-Manufacture of jewellery, bijouterie and related articles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>321-Manufacture of jewellery, bijouterie and related articles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>10076625.42505</v>
@@ -959,73 +865,83 @@
         <v>8739807.07456</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>11258999.39899</v>
+        <v>11259572.21136</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7172322.748420001</v>
+        <v>8042693.12916</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7015581.34741</v>
+        <v>7021066.56047</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7778252.84061</v>
+        <v>7852961.028099999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>9355899.8562</v>
+        <v>9358066.63143</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>10313490.90684</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>11558086.98897</v>
+        <v>11567215.78588</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>12888280.79069</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13006354.67067</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>15916658.216</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>5470472.43756</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>5542247.44403</v>
+        <v>5542247.444030001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>6731688.038860001</v>
+        <v>6731688.03886</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8292808.07668</v>
+        <v>8293355.069949999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4261889.371269999</v>
+        <v>5035794.298780001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3887474.79559</v>
+        <v>3892960.00865</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4315848.60185</v>
+        <v>4352715.08792</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4304415.88275</v>
+        <v>4306502.157690001</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>5247768.172809999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5563241.918710001</v>
+        <v>5571779.98037</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>5774255.705259999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>5847556.0671</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8325667.384</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>4579414.84082</v>
@@ -1040,31 +956,36 @@
         <v>2934884.92849</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>2868400.51071</v>
+        <v>2964865.08322</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>3090722.02665</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3416820.4986</v>
+        <v>3454429.47682</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4997905.8307</v>
+        <v>4997948.032699999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>5003130.0543</v>
+        <v>5003130.054299999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>5935681.14451</v>
+        <v>5936256.452550001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>7030036.24127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>7075335.67016</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>7474052.825</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>26738.14667</v>
@@ -1076,37 +997,42 @@
         <v>36274.4057</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>31306.39382</v>
+        <v>31332.21292</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>42032.86644</v>
+        <v>42033.74716000001</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>37384.52517</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>45583.74016</v>
+        <v>45816.46336</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>53578.14275</v>
+        <v>53616.44103999999</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>62592.67973</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>59163.92575</v>
+        <v>59179.35296</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>83988.84415999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>83462.93341</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>116938.007</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>59923.98538999999</v>
+        <v>59923.98539</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>37532.27488</v>
@@ -1118,16 +1044,16 @@
         <v>56814.57411</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>39389.39973999999</v>
+        <v>39497.40852</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>60792.9332</v>
+        <v>60792.93319999999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>49721.93063</v>
+        <v>49793.45694</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>68932.41742</v>
+        <v>68961.23706999999</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>82875.98548999999</v>
@@ -1136,16 +1062,21 @@
         <v>108025.50961</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>112380.09376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>115974.3722</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>193925.422</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>35476.12713</v>
+        <v>35476.12712999999</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>29137.20245</v>
@@ -1157,31 +1088,36 @@
         <v>41731.61859000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>28799.81198</v>
+        <v>28907.82076</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>49815.37813</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>42009.57195000001</v>
+        <v>42064.19826</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>54988.93330999999</v>
+        <v>55017.75295999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>66608.91456</v>
+        <v>66608.91455999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>68011.09099</v>
+        <v>68011.09099000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>56102.94926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>59656.28764</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>111639.635</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1355.82483</v>
@@ -1193,7 +1129,7 @@
         <v>2839.93957</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>9500.19736</v>
+        <v>9500.197360000002</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>1921.17264</v>
@@ -1202,7 +1138,7 @@
         <v>1832.61808</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2852.318790000001</v>
+        <v>2869.21879</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>1966.54863</v>
@@ -1214,13 +1150,18 @@
         <v>6182.57972</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>708.4879999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>708.5886599999999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4223.668</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>23092.03343</v>
@@ -1235,7 +1176,7 @@
         <v>5582.75816</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>8668.41512</v>
+        <v>8668.415120000001</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>9144.93699</v>
@@ -1253,91 +1194,106 @@
         <v>33831.8389</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>55568.6565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>55609.49590000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>78062.11900000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>10016701.43966</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>7094586.257030001</v>
+        <v>7094586.25703</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>8700205.33199</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>11202184.82488</v>
+        <v>11202757.63725</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7132933.348680001</v>
+        <v>8003195.720639999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6954788.41421</v>
+        <v>6960273.62727</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7728530.90998</v>
+        <v>7803167.57116</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>9286967.438779999</v>
+        <v>9289105.39436</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>10230614.92135</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11450061.47936</v>
+        <v>11459190.27627</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>12775900.69693</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12890380.29847</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>15722732.794</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>9550284.079150002</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>6583477.09745</v>
+        <v>6583477.097450001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>8024183.59477</v>
+        <v>8024183.594769999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>10685370.94608</v>
+        <v>10685867.5833</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6709287.26501</v>
+        <v>7547804.65796</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6474860.89342</v>
+        <v>6480191.96065</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>7148001.8319</v>
+        <v>7217655.27068</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8671676.239800001</v>
+        <v>8673356.884500001</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>9493511.137250001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>10438539.42359</v>
+        <v>10446535.92799</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>11599484.50475</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>11695160.65066</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>13987346.786</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3030368.46217</v>
@@ -1352,85 +1308,95 @@
         <v>5600574.60088</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4328530.672019999</v>
+        <v>5134719.271199999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4423882.057120001</v>
+        <v>4423882.05712</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4889725.538430001</v>
+        <v>4945786.26754</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>5329343.36818</v>
+        <v>5330606.347180001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>6075902.23741</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7317877.10374</v>
+        <v>7318523.839</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>9020496.605380001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>9074549.64896</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>11186427.318</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>6467213.15366</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>3364325.59548</v>
+        <v>3364325.595480001</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>3561135.95931</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>5023128.34648</v>
+        <v>5023624.983700001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2316337.19488</v>
+        <v>2348662.23605</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1958781.4637</v>
+        <v>1964112.53093</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1758008.92749</v>
+        <v>1771601.63716</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>3230142.31548</v>
+        <v>3230559.98118</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>3273820.50414</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2898913.69331</v>
+        <v>2905952.4703</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2258296.01917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2299362.6357</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2437031.503</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>46384.92284</v>
+        <v>46384.92284000001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>45031.09401</v>
+        <v>45031.09401000001</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>56813.87297</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>49444.20357</v>
+        <v>49444.20356999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>50221.60835</v>
+        <v>50225.36095</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>74933.40934</v>
@@ -1445,16 +1411,21 @@
         <v>111176.03967</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>185441.57516</v>
+        <v>185752.56731</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>236249.03408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>236805.51988</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>291633.714</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>6317.540480000001</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>84442.84612</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>72254.251</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>466417.36051</v>
@@ -1505,34 +1481,39 @@
         <v>676021.73722</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>516813.8788</v>
+        <v>516890.05395</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>423646.08367</v>
+        <v>455391.06268</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>479927.52079</v>
+        <v>480081.6666200001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>580529.0780799999</v>
+        <v>585512.30048</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>615291.19898</v>
+        <v>615748.50986</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>737103.7841</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1011522.05577</v>
+        <v>1012654.34828</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1176416.19218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1195219.64781</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1735386.008</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>322581.57549</v>
@@ -1544,34 +1525,39 @@
         <v>446597.83364</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>416768.9878999999</v>
+        <v>416822.7292000001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>426877.27228</v>
+        <v>437164.95637</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>415021.71742</v>
+        <v>415158.9475700001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>448838.85205</v>
+        <v>452113.0980700001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>466580.5549099999</v>
+        <v>467038.65293</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>501728.61068</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>604477.0806600001</v>
+        <v>607587.5932799999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>775352.61436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>788397.19829</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>728857.943</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>3356.2244</v>
@@ -1586,7 +1572,7 @@
         <v>3194.50075</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>787.17843</v>
+        <v>813.0823799999999</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>480.62304</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>2736.00463</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>5083.195</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>96851.11771999999</v>
@@ -1625,31 +1616,36 @@
         <v>145133.4791</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>175709.54279</v>
+        <v>183694.59004</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>162327.34916</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>179126.53859</v>
+        <v>181006.3942</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>174860.3317</v>
+        <v>175231.0775</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>200531.43707</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>257645.04919</v>
+        <v>258100.38096</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>331745.48511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>334278.2405200001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>270179.078</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>222374.23337</v>
@@ -1661,34 +1657,39 @@
         <v>281781.4613</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>268441.00805</v>
+        <v>268494.7493499999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>250380.55106</v>
+        <v>252657.28395</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>252213.74522</v>
+        <v>252350.97537</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>268566.13312</v>
+        <v>269960.5235299999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>291017.88134</v>
+        <v>291105.23356</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>299779.05446</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>345009.2499</v>
+        <v>347664.43075</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>440871.12462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>451382.95314</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>453595.67</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>143835.78502</v>
@@ -1700,34 +1701,39 @@
         <v>229423.90358</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>100044.8909</v>
+        <v>100067.32475</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-3231.188609999999</v>
+        <v>18226.10631</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>64905.80337</v>
+        <v>64922.71905</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>131690.22603</v>
+        <v>133399.20241</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>148710.64407</v>
+        <v>148709.85693</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>235375.17342</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>407044.97511</v>
+        <v>405066.755</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>401063.5778200001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>406822.44952</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1006528.065</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>200000.89221</v>
@@ -1742,31 +1748,36 @@
         <v>142702.23099</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>260988.41784</v>
+        <v>265463.07434</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>239009.28039</v>
+        <v>239009.29426</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>498630.02574</v>
+        <v>499855.46777</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>433000.15884</v>
+        <v>433005.58003</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>461459.2421499999</v>
+        <v>461459.2421500001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1493622.07082</v>
+        <v>1498232.47806</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>632583.34114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>658047.7256799999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1336945.374</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>12.93947</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>784.15</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>4636.212</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>16.95749</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>148.618</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>5984.300590000001</v>
@@ -1856,34 +1877,39 @@
         <v>6402.04375</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>9626.11442</v>
+        <v>9626.114420000002</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>8454.535320000001</v>
+        <v>8531.994720000001</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>8773.08858</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>8795.221009999999</v>
+        <v>8795.576369999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7434.105810000001</v>
+        <v>7434.10581</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>8998.371490000001</v>
+        <v>8998.37149</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>14132.21314</v>
+        <v>14306.08838</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>10883.74213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>10970.22869</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>16911.158</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>391.22585</v>
@@ -1898,7 +1924,7 @@
         <v>66.13344000000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>6.998180000000001</v>
+        <v>6.99818</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>5.3933</v>
@@ -1916,13 +1942,18 @@
         <v>17.85097</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>28.54269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>131.0802</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7034.061</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>14071.83321</v>
@@ -1937,7 +1968,7 @@
         <v>475.95848</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>391.99316</v>
+        <v>511.52874</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>210.99434</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>30.28447</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>183.19578</v>
@@ -1970,19 +2006,19 @@
         <v>248.35986</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>300.8049800000001</v>
+        <v>300.80498</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>31.87088</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>509.98312</v>
+        <v>637.0789299999999</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>249.74426</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>293.8243699999999</v>
+        <v>293.89246</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>6950.404</v>
@@ -1991,16 +2027,21 @@
         <v>504.99407</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>9993.284009999999</v>
+        <v>10008.28401</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>61.44754</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>88.901</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>147678.46538</v>
@@ -2015,31 +2056,36 @@
         <v>95354.22732999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>199171.15074</v>
+        <v>201213.61867</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>172357.32062</v>
+        <v>172357.33449</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>412441.61613</v>
+        <v>413566.9431499999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>314769.91831</v>
+        <v>314768.39184</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>308537.93402</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1092891.57672</v>
+        <v>1096741.80726</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>447321.55271</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>452473.7241699999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>912910.486</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>15.98674</v>
@@ -2051,7 +2097,7 @@
         <v>1820.11644</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>40.75598</v>
+        <v>40.75597999999999</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>36.6373</v>
@@ -2072,13 +2118,18 @@
         <v>1478.34663</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>93.88696</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>95.11362</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>19783.86715</v>
@@ -2099,25 +2150,30 @@
         <v>40400.57754</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>54365.99459</v>
+        <v>54378.60887</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>68128.97588</v>
+        <v>68135.92353999999</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>120554.08434</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>331484.1614099999</v>
+        <v>332015.37691</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>112905.16814</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>131973.12243</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>337084.909</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>11879.07804</v>
@@ -2132,13 +2188,13 @@
         <v>17261.09711</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>17883.52535</v>
+        <v>19991.62313</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>16918.90698</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>19813.18286</v>
+        <v>19900.26014</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>22502.63093</v>
@@ -2147,16 +2203,21 @@
         <v>21558.3054</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>41280.99902</v>
+        <v>41321.08498000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>60457.60901000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>61511.61706999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>58108.449</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>205519.78681</v>
@@ -2165,37 +2226,42 @@
         <v>151631.53828</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>251756.0977700001</v>
+        <v>251756.09777</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>110160.46366</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>163790.9572</v>
+        <v>173773.89829</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>215314.07699</v>
+        <v>215314.29951</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>437694.35057</v>
+        <v>438446.8650700001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>438084.40778</v>
+        <v>438088.01666</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>462470.72696</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1604982.29741</v>
+        <v>1616482.90558</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>638221.1219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>662912.64301</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1595592.537</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3501.16752</v>
@@ -2210,7 +2276,7 @@
         <v>2150.79663</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2365.51962</v>
+        <v>2372.25625</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>1979.05441</v>
@@ -2225,22 +2291,27 @@
         <v>450.33977</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>891.03358</v>
+        <v>891.06208</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1877.90772</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1877.89944</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>933.693</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2532.96825</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>751.0996699999999</v>
+        <v>751.0996700000001</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>734.5713300000001</v>
@@ -2249,13 +2320,13 @@
         <v>1752.65935</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>750.3371500000001</v>
+        <v>1166.31081</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>1675.30819</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4340.58398</v>
+        <v>4395.10364</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>1628.4775</v>
@@ -2264,16 +2335,21 @@
         <v>1068.94706</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>9848.24842</v>
+        <v>16349.06402</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>754.42994</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>1428.912</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>374.71005</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>12.22987</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>164386.89068</v>
@@ -2327,31 +2408,36 @@
         <v>70657.29221000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>112488.70242</v>
+        <v>117035.06096</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>152133.84261</v>
+        <v>152134.06513</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>359575.4721</v>
+        <v>360264.08929</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>353941.94643</v>
+        <v>353937.43029</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>328804.7385800001</v>
+        <v>328804.73858</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1197734.16281</v>
+        <v>1201817.86517</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>495577.03997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>499906.81936</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1114805.07</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>40.84284</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>28.641</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>32088.75023</v>
@@ -2405,52 +2496,57 @@
         <v>29001.62549</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>41818.10805</v>
+        <v>46831.98028</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>54388.17989999999</v>
+        <v>54388.1799</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>57278.74496</v>
+        <v>57288.1226</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>64227.04803</v>
+        <v>64235.17305</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>120774.39923</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>367462.56415</v>
+        <v>368373.32876</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>133727.97314</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>155162.19331</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>474462.17</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>2594.45724</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3059.818690000001</v>
+        <v>3059.81869</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>2617.92676</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>6562.952989999999</v>
+        <v>6562.95299</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>6366.1596</v>
+        <v>6366.15963</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>5118.092509999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>10669.94155</v>
+        <v>10669.94156</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>7305.83419</v>
@@ -2459,16 +2555,21 @@
         <v>11292.97497</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>27578.31304</v>
+        <v>27583.61014</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6271.54126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>5199.071089999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3934.051</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>135744.5666</v>
@@ -2483,31 +2584,36 @@
         <v>112530.96657</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>122493.72591</v>
+        <v>136947.84741</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>126638.03934</v>
+        <v>126640.61936</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>199530.04108</v>
+        <v>200766.51101</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>209198.05761</v>
+        <v>209198.15217</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>279671.76227</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>527639.94421</v>
+        <v>528640.8546900001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>450072.64569</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>452368.8915</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>826032.732</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>135150.63769</v>
@@ -2522,31 +2628,36 @@
         <v>99557.52870000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>118223.88366</v>
+        <v>132678.00516</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>122856.94643</v>
+        <v>122859.52645</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>189870.25965</v>
+        <v>191106.72958</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>187585.95993</v>
+        <v>187586.05449</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>244307.15392</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>496218.1775399999</v>
+        <v>497219.08802</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>429416.44656</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>431712.6923700001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>784219.8860000001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>593.9289100000001</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>20656.19913</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>41812.846</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>2572.323819999998</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-6012.758339999998</v>
+        <v>-6012.758339999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>8370.235330000001</v>
+        <v>8370.235329999998</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>20055.69166</v>
+        <v>20078.12551</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-28527.45388</v>
+        <v>-27032.56505</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-38037.03257</v>
+        <v>-38022.90556</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-6904.139879999999</v>
+        <v>-5958.705899999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-65571.66248</v>
+        <v>-65570.73187</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-45308.07366000001</v>
+        <v>-45308.07366</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-231955.19569</v>
+        <v>-241824.52721</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-54646.84862999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-50411.35931</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-78151.83</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>13520.67938</v>
@@ -2639,31 +2760,36 @@
         <v>28549.09378</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>56756.47542</v>
+        <v>56985.63882</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>26168.777</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>28500.6285</v>
+        <v>28531.08307</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>33946.66586</v>
+        <v>34047.02364</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>58990.8969</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>81409.50971000001</v>
+        <v>89873.1035</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>78193.42449999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>78837.75508000002</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>162011.488</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>18.4201</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>137.08074</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>793.659</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>13502.25928</v>
@@ -2711,37 +2842,42 @@
         <v>15680.97916</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>29043.72019</v>
+        <v>29043.72018999999</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>28050.39633</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>56445.26406</v>
+        <v>56674.42746</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>26009.47081</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>28333.31874</v>
+        <v>28363.77331</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>33629.36344</v>
+        <v>33729.72122</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>58865.24729</v>
+        <v>58865.24729000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>80768.82076</v>
+        <v>89232.41455</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>78056.34375999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>78700.67433999998</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>161217.829</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>27057.8076</v>
@@ -2756,31 +2892,36 @@
         <v>19785.01298</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>18682.01147</v>
+        <v>18809.68154</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>18609.90297</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>19259.55905</v>
+        <v>19301.93619</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>102941.63515</v>
+        <v>102935.30769</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>30361.07316</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>127143.78497</v>
+        <v>127532.94515</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>36494.62914</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>37494.48387</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>43265.215</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2658.84527</v>
@@ -2792,7 +2933,7 @@
         <v>2405.2293</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>4683.155789999999</v>
+        <v>4683.15579</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>5956.968620000001</v>
@@ -2807,19 +2948,24 @@
         <v>9054.802699999998</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>5331.33505</v>
+        <v>5331.335050000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>6797.890530000001</v>
+        <v>6862.06968</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>10775.24417</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>10879.42985</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>12343.553</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>465.69132</v>
@@ -2843,22 +2989,27 @@
         <v>681.3744099999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2006.43907</v>
+        <v>2005.4896</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1659.29069</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5421.731720000001</v>
+        <v>5421.877420000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4437.04906</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4437.22916</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1289.738</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>23933.27101</v>
@@ -2873,70 +3024,80 @@
         <v>13661.82656</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>11524.51256</v>
+        <v>11652.18263</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>12531.2582</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11120.05297</v>
+        <v>11162.43011</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>91880.39337999999</v>
+        <v>91875.01539</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>23370.44742</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>114924.16272</v>
+        <v>115248.99805</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>21282.33591</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>22177.82486</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>29631.924</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-10964.8044</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-3834.17912</v>
+        <v>-3834.179120000001</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-29155.12282</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>28819.77246</v>
+        <v>28842.20631</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>9547.01007</v>
+        <v>11143.39223</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-30478.15854</v>
+        <v>-30464.03153</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2336.92957</v>
+        <v>3270.440979999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-134566.63177</v>
+        <v>-134459.01592</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-16678.24992</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-277689.47095</v>
+        <v>-279484.36886</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-12948.05327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-9068.088100000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>40594.443</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>10479.84718</v>
@@ -2951,31 +3112,36 @@
         <v>15788.01084</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>13456.92433</v>
+        <v>13813.42675</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>9733.170050000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>15265.24347</v>
+        <v>15474.73651</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>13550.6338</v>
+        <v>13554.87153</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>12946.47585</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>16788.9063</v>
+        <v>16830.48244</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>19003.58229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>19501.63548</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>27351.408</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-21444.65158</v>
@@ -2987,31 +3153,34 @@
         <v>-47088.49731</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>13031.76162</v>
+        <v>13054.19547</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-3909.914259999999</v>
+        <v>-2670.034520000002</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-40211.32859</v>
+        <v>-40197.20158000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-12928.3139</v>
+        <v>-12204.29553</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-148117.26557</v>
+        <v>-148013.88745</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>-29624.72577</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-294478.37725</v>
+        <v>-296314.8513</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-31951.63556</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-28569.72358</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>13243.035</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3726</v>
@@ -3041,31 +3213,34 @@
         <v>3490</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2978</v>
+        <v>2980</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2141</v>
+        <v>2147</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1720</v>
+        <v>1739</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1561</v>
+        <v>1577</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1577</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1410</v>
+        <v>1575</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1606</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>